--- a/doc/盤點SourceCode第三方套件(PAYMENTWEB).xlsx
+++ b/doc/盤點SourceCode第三方套件(PAYMENTWEB).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="195">
   <si>
     <t>套件名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,15 +39,6 @@
     <t>ezmorph-1.0.6.jar</t>
   </si>
   <si>
-    <t>sqljdbc4.jar</t>
-  </si>
-  <si>
-    <t>standard.jar</t>
-  </si>
-  <si>
-    <t>wsdl4j-1.6.2.jar</t>
-  </si>
-  <si>
     <t>The Apache Software License, Version 2.0</t>
   </si>
   <si>
@@ -124,96 +115,6 @@
   </si>
   <si>
     <t>jaxb-api-2.2.1.jar</t>
-  </si>
-  <si>
-    <t>jcommon-1.0.6.jar</t>
-  </si>
-  <si>
-    <t>jdbc3.0-2.2.jar.bak</t>
-  </si>
-  <si>
-    <t>jfreechart-1.0.3.jar</t>
-  </si>
-  <si>
-    <t>json-lib-2.3.jar</t>
-  </si>
-  <si>
-    <t>json-lib-2.4-jdk15.jar</t>
-  </si>
-  <si>
-    <t>jsr311-api-1.0.jar</t>
-  </si>
-  <si>
-    <t>jstl.jar</t>
-  </si>
-  <si>
-    <t>jxl.jar</t>
-  </si>
-  <si>
-    <t>log4j-1.2.13.jar</t>
-  </si>
-  <si>
-    <t>MbecApiClient.jar</t>
-  </si>
-  <si>
-    <t>neethi-2.0.4.jar</t>
-  </si>
-  <si>
-    <t>posapi_j_npg.jar</t>
-  </si>
-  <si>
-    <t>posapi_mac_j_npg.jar</t>
-  </si>
-  <si>
-    <t>saaj-api-1.3.jar</t>
-  </si>
-  <si>
-    <t>slf4j-api-1.6.4.jar</t>
-  </si>
-  <si>
-    <t>spring-aop-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>spring-beans-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>spring-context-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>spring-core-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>spring-dao-2.0.8.jar</t>
-  </si>
-  <si>
-    <t>spring-jdbc-2.0.8.jar</t>
-  </si>
-  <si>
-    <t>spring-tx-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>spring-web-2.5.3.jar</t>
-  </si>
-  <si>
-    <t>sqljdbc.jar.bak</t>
-  </si>
-  <si>
-    <t>stax2-api-3.0.2.jar</t>
-  </si>
-  <si>
-    <t>struts.jar</t>
-  </si>
-  <si>
-    <t>struts-el.jar</t>
-  </si>
-  <si>
-    <t>tlgbean.jar</t>
-  </si>
-  <si>
-    <t>woodstox-core-asl-4.0.8.jar</t>
-  </si>
-  <si>
-    <t>XmlSchema-1.4.7.jar</t>
   </si>
   <si>
     <t>ApiClient.jar</t>
@@ -944,13 +845,1615 @@
   <si>
     <t>jcaptcha-1.0-all.jar</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPTCHA 的目的是防止機器人自動化操作，保護網站或應用程式免受垃圾資訊或攻擊的影響。</t>
+  </si>
+  <si>
+    <t>jdbc3.0-2.2.jar.bak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JDBC (Java Database Connectivity)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的類庫，主要用於 Java 應用程式與資料庫之間的連接與操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>jfreechart-1.0.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jcommon-1.0.6.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>常用的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>函式庫，通常與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> JFreeChart </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">搭配使用。JFreeChart 是一個開源的 Java 圖表生成庫，而 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JCommon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提供了 JFreeChart 所需的底層支援功能。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用於在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 應用程式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中生成各種高品質的圖表。JFreeChart 是一個開源的 Java 圖表生成庫，支援各類資料視覺化需求，能夠生成靜態和互動式的圖表。</t>
+    </r>
+  </si>
+  <si>
+    <t>json-lib-2.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 程式中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON（JavaScript Object Notation）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 處理函式庫。它提供了將 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 物件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON 資料格式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 之間進行轉換的功能，支援 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON 解析、生成和操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>json-lib-2.4-jdk15.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSON-lib</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函式庫的一個版本，專門為 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 1.5（JDK 1.5）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 環境設計，用於處理 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON（JavaScript Object Notation）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 格式的資料。它提供了將 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 物件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSON 字串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 之間進行轉換的功能，並支援各種常見的資料結構。</t>
+    </r>
+  </si>
+  <si>
+    <t>jsr311-api-1.0.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSR 311</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 規範的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，也被稱為 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JAX-RS 1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（Java API for RESTful Web Services）。它主要用於建立和開發 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESTful Web Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（基於 REST 架構的網絡服務）。</t>
+    </r>
+  </si>
+  <si>
+    <t>jstl.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JavaServer Pages Standard Tag Library（JSTL）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的核心函式庫，主要用於在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JSP（Java Server Pages）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 頁面中簡化邏輯操作和顯示動態內容。JSTL 提供了一組標準的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>標籤庫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，幫助開發者避免在 JSP 頁面中直接使用過多的 Java 程式碼，進而提高程式碼的可讀性和維護性。</t>
+    </r>
+  </si>
+  <si>
+    <t>jxl.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JExcelAPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 函式庫的核心檔案，主要用於在 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 程式中 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讀取、寫入和操作 Excel 文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>jxl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 支援的 Excel 格式為 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excel 97-2003 (.xls)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，不支援 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Excel 2007 (.xlsx)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 及更高版本。</t>
+    </r>
+  </si>
+  <si>
+    <t>log4j-1.2.13.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Apache Log4j 1.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 系列的一個版本，專門用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java 應用程式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日誌記錄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Log4j 是一個廣泛使用的日誌框架，允許開發者輕鬆地在應用程式中添加日誌記錄功能，從而在開發、測試和生產環境中收集和分析日誌數據。</t>
+    </r>
+  </si>
+  <si>
+    <t>MbecApiClient.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一個用於與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mbec API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 進行互動的 Java 函式庫，通常用於與 Mbec 系統的服務進行通信。Mbec 可能是一個提供各種業務或技術服務的系統或平台，而 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>MbecApiClient.jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是其 API 客戶端，允許 Java 應用程序輕鬆地發送請求並處理來自 Mbec 系統的響應。</t>
+    </r>
+  </si>
+  <si>
+    <t>neethi-2.0.4.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 Java 函式庫，實現了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WS-Policy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 規範。這個函式庫通常用於處理和解析與 Web Services 政策相關的資訊，並將其應用於 Web Services 的配置和執行中。WS-Policy 是一個 XML 標準，定義了如何在 Web 服務中描述和處理政策（如安全性、可靠性、交易等）。</t>
+    </r>
+  </si>
+  <si>
+    <t>posapi_j_npg.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一個與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POS（Point of Sale）系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的 Java 函式庫，通常用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POS 交易處理、設備集成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POS 系統的功能擴展</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。這個函式庫可能包含了與 POS 系統硬體（如條碼掃描器、打印機、支付終端等）進行交互所需的 API 或者其他功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>posapi_mac_j_npg.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">一個與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>POS（Point of Sale）系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 相關的 Java 函式庫，專門用於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 操作系統上與 POS 硬體設備進行集成和互動。這個函式庫的功能與 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>posapi_j_npg.jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 類似，主要用於與 POS 設備（如條碼掃描器、打印機、支付終端等）進行通信，但它是針對 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mac OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 環境進行優化的。</t>
+    </r>
+  </si>
+  <si>
+    <t>saaj-api-1.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SAAJ (SOAP with Attachments API for Java)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 Java API，主要用於處理和發送 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOAP 消息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，包括支持 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>附件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 SOAP 消息。SAAJ 是一個標準的 Java API，定義了如何構建、處理和解析 SOAP 消息，它特別關注於 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web Services</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SOAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 協議。</t>
+    </r>
+  </si>
+  <si>
+    <t>slf4j-api-1.6.4.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SLF4J (Simple Logging Facade for Java)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的 API，版本為 1.6.4。SLF4J 是一個 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>日誌門面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（Logging Facade），用於簡化 Java 應用中的日誌框架集成。它提供了統一的接口，讓開發者可以在應用程式中使用不同的日誌實現（如 Log4j、Logback 等）而不需要修改應用程式的源代碼。</t>
+    </r>
+  </si>
+  <si>
+    <t>spring-aop-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Spring Framework</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中的 AOP 模組（面向切面編程），版本為 2.5.3。AOP（Aspect-Oriented Programming）是面向切面編程的一種編程範式，它允許開發者將關注點（例如日誌記錄、安全性、事務管理等）從業務邏輯中分離出來，使程式碼更加模組化和可重用。</t>
+    </r>
+  </si>
+  <si>
+    <t>spring-beans-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework 2.5.3 版本中的一個核心組件，主要負責處理 Spring 的 IoC（控制反轉）與 DI（依賴注入）功能。</t>
+  </si>
+  <si>
+    <t>spring-context-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring Framework 2.5.3 版本的一個核心模組，基於 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>spring-beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，提供更高層次的功能與支持，用於處理應用程式上下文（Application Context）相關的功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>spring-core-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spring Framework 2.5.3 版本中最基礎且核心的組件之一。它提供了整個 Spring 框架運行所需的基本工具和功能，是其他模組（如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>spring-context</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>spring-beans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）的基礎。</t>
+    </r>
+  </si>
+  <si>
+    <t>spring-dao-2.0.8.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework 中與數據訪問層相關的模組，專注於簡化與資料庫的交互操作。該模組主要支持 DAO（Data Access Object）設計模式，並提供對常見數據訪問技術（如 JDBC 和 ORM 框架）的整合支持。</t>
+  </si>
+  <si>
+    <t>spring-jdbc-2.0.8.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework 的一個模組，專門用於簡化與 JDBC（Java Database Connectivity）相關的操作。它建立在核心功能的基礎上，為開發者提供了一套更高層次的工具，幫助更高效且更安全地與數據庫進行交互。</t>
+  </si>
+  <si>
+    <t>spring-tx-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Spring Framework 2.5.3 版本中專門處理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事務管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的模組。它提供了對編程式和聲明式事務管理的支持，幫助開發者在應用程式中安全、高效地處理數據操作時的事務管理。</t>
+    </r>
+  </si>
+  <si>
+    <t>spring-web-2.5.3.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework 2.5.3 版本中用於支持 Web 開發的模組，提供了一系列與 Web 應用相關的功能和工具，為開發者構建基於 Spring 的 Web 應用提供了核心支持。</t>
+  </si>
+  <si>
+    <t>sqljdbc.jar.bak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">微軟提供的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC 驅動程式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，用於 Java 應用程式與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft SQL Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 數據庫之間的連接和交互。該驅動程式實現了 JDBC（Java Database Connectivity）的標準規範，允許 Java 應用程式執行 SQL 查詢、存取數據、調用存儲過程等操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>standard.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一個通用的 JAR 檔案名稱，通常指的是某些 Java 應用程式或框架中的標準庫或組件。具體的內容和功能會根據其所在的上下文而有所不同。這個 JAR 檔案本身並不指向特定的庫或框架，因為不同的開發者或應用可能會使用這個名稱來包含不同的標準功能模組。</t>
+  </si>
+  <si>
+    <t>sqljdbc4.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">微軟提供的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC 驅動程式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，專門用於 Java 應用程式與 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microsoft SQL Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 之間的連接和交互。這個 JAR 檔案是 SQL Server 2005 及以上版本的 JDBC 驅動程式，並且支持 Java 5 及以上版本。</t>
+    </r>
+  </si>
+  <si>
+    <t>stax2-api-3.0.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>StAX 2.0（Streaming API for XML）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個 Java API 庫，這個 JAR 檔案提供了擴展的 StAX 介面，允許開發者在 Java 應用中高效地處理 XML 文件的解析和生成。StAX 是一種基於事件驅動的 XML 處理方法，它與傳統的 DOM 或 SAX 處理方式不同，能夠提供更輕量級和更高效的 XML 讀取與寫入方式。</t>
+    </r>
+  </si>
+  <si>
+    <t>struts.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts 框架的核心 JAR 檔案，Struts 是一個基於 MVC（Model-View-Controller）設計模式的 Web 應用框架，主要用於簡化 Java Web 應用程式的開發。該框架提供了集中管理請求處理、視圖呈現和業務邏輯的功能，並支援與 JSP（JavaServer Pages）、Servlets 等技術的整合。</t>
+  </si>
+  <si>
+    <t>struts-el.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apache Struts 框架中的一個 JAR 檔案，它提供了對 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Expression Language (EL)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的支持。Expression Language 是一種簡化在 JSP 頁面中訪問 Java 物件的語法，使得開發者可以在視圖層更容易地使用 Java Bean、集合、屬性等資料。</t>
+    </r>
+  </si>
+  <si>
+    <t>tlgbean.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科軟客製化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>woodstox-core-asl-4.0.8.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Woodstox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> XML 處理器的一個核心 JAR 檔案。Woodstox 是一個高效的 XML 解析器，實現了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StAX (Streaming API for XML)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 標準，並提供了基於事件的 XML 解析和生成。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>woodstox-core-asl-4.0.8.jar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是 Woodstox 解析器的核心部分，負責解析和生成 XML 文件的功能。</t>
+    </r>
+  </si>
+  <si>
+    <t>wsdl4j-1.6.2.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WSDL4J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（Web Services Description Language for Java）的一個 JAR 檔案，它提供了一個用於處理 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WSDL（Web Services Description Language）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 文件的 Java 庫。WSDL 是一種基於 XML 的語言，用來描述 Web 服務的接口、操作、參數以及返回值等信息，幫助不同系統之間的互操作性。</t>
+    </r>
+  </si>
+  <si>
+    <t>XmlSchema-1.4.7.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XML Schema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一個 Java 庫，提供了對 XML Schema 1.0 標準的支持。XML Schema 用於定義 XML 文檔的結構，確保 XML 文檔的格式和數據類型正確。這個 JAR 檔案是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apache XML Schema Project</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的一部分，旨在提供一個高效的 Java 實現來處理 XML Schema 文檔。</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,12 +2467,6 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1009,21 +2506,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF202124"/>
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1064,6 +2549,21 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1107,71 +2607,61 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1479,14 +2969,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="37.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="62.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35" style="1" customWidth="1"/>
@@ -1494,11 +2984,11 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1511,918 +3001,988 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="66.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="84" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="66.75" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="50.25" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33.75" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A39" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A40" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A42" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A51" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="14">
+        <v>40977</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="14">
+        <v>40702</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A66" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="C66" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C67" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="C68" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:6" ht="17.25" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="17"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" s="18"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
-    </row>
-    <row r="53" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="9"/>
-    </row>
-    <row r="56" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="E57" s="9"/>
-    </row>
-    <row r="58" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-    </row>
-    <row r="59" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="9"/>
-    </row>
-    <row r="60" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="E63" s="9"/>
-    </row>
-    <row r="64" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="19">
-        <v>40977</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="19">
-        <v>40702</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="9"/>
-    </row>
-    <row r="67" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="9"/>
-    </row>
-    <row r="68" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="9"/>
-    </row>
-    <row r="69" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="9"/>
-    </row>
-    <row r="70" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C70" s="11"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="9"/>
-    </row>
-    <row r="71" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="9"/>
-    </row>
-    <row r="72" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C73" s="7"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C74" s="7"/>
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C75" s="11"/>
-    </row>
-    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C76" s="7"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C77" s="7"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C78" s="11"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C79" s="7"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C80" s="7"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C81" s="11"/>
-    </row>
-    <row r="82" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C83" s="11"/>
-    </row>
-    <row r="84" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C85" s="7"/>
-      <c r="E85" s="9"/>
-    </row>
-    <row r="86" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C86" s="11"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="9"/>
-    </row>
-    <row r="87" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C87" s="7"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
-    </row>
-    <row r="88" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C88" s="11"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="9"/>
-    </row>
-    <row r="89" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C89" s="11"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="20"/>
-    </row>
-    <row r="92" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C92" s="11"/>
-    </row>
-    <row r="93" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C93" s="11"/>
-    </row>
-    <row r="94" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C94" s="11"/>
-    </row>
-    <row r="95" spans="3:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C95" s="7"/>
+      <c r="C69" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:6" ht="18" thickBot="1">
+      <c r="C70" s="10"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:6" ht="18" thickBot="1">
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" thickBot="1">
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:6" ht="18" thickBot="1">
+      <c r="C73" s="6"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:6" ht="18" thickBot="1">
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:6" ht="17.25">
+      <c r="C75" s="10"/>
+    </row>
+    <row r="76" spans="1:6" ht="17.25">
+      <c r="C76" s="6"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="17.25">
+      <c r="C77" s="6"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="17.25">
+      <c r="C78" s="10"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="17.25">
+      <c r="C79" s="6"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" ht="17.25">
+      <c r="C80" s="6"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="3:5" ht="17.25">
+      <c r="C81" s="10"/>
+    </row>
+    <row r="82" spans="3:5" ht="17.25">
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="3:5" ht="17.25">
+      <c r="C83" s="10"/>
+    </row>
+    <row r="84" spans="3:5" ht="18" thickBot="1">
+      <c r="C84" s="6"/>
+    </row>
+    <row r="85" spans="3:5" ht="18" thickBot="1">
+      <c r="C85" s="6"/>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="3:5" ht="18" thickBot="1">
+      <c r="C86" s="10"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="3:5" ht="18" thickBot="1">
+      <c r="C87" s="6"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="3:5" ht="18" thickBot="1">
+      <c r="C88" s="10"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="3:5" ht="18" thickBot="1">
+      <c r="C89" s="10"/>
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="3:5" ht="17.25">
+      <c r="C90" s="6"/>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="C91" s="15"/>
+    </row>
+    <row r="92" spans="3:5" ht="17.25">
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="3:5" ht="17.25">
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" spans="3:5" ht="17.25">
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="3:5" ht="17.25">
+      <c r="C95" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
